--- a/patient_status/overall_status/inference/data/test_data&models/inference_inibica_survival.xlsx
+++ b/patient_status/overall_status/inference/data/test_data&models/inference_inibica_survival.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="16215" windowHeight="7620"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1695,9 +1695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LR110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KW1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="KV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="LR73" sqref="LR73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="JZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA8" s="2">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="LI9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK9" s="2">
         <v>0</v>
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="JZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA10" s="2">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="LR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:330">
@@ -11926,7 +11926,7 @@
         <v>0.203125</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -17840,10 +17840,10 @@
         <v>0</v>
       </c>
       <c r="LI16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK16" s="2">
         <v>0</v>
@@ -18832,10 +18832,10 @@
         <v>0</v>
       </c>
       <c r="LI17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK17" s="2">
         <v>0</v>
@@ -19851,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="LR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:330">
@@ -22827,7 +22827,7 @@
         <v>0</v>
       </c>
       <c r="LR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:330">
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="LI22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK22" s="2">
         <v>0</v>
@@ -24828,7 +24828,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -25671,7 +25671,7 @@
         <v>0</v>
       </c>
       <c r="JZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA24" s="2">
         <v>0</v>
@@ -33712,10 +33712,10 @@
         <v>0</v>
       </c>
       <c r="LI32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK32" s="2">
         <v>0</v>
@@ -33750,7 +33750,7 @@
         <v>0.3125</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -35696,10 +35696,10 @@
         <v>0</v>
       </c>
       <c r="LI34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK34" s="2">
         <v>0</v>
@@ -36583,7 +36583,7 @@
         <v>0</v>
       </c>
       <c r="JZ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA35" s="2">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="LI35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK35" s="2">
         <v>0</v>
@@ -38672,10 +38672,10 @@
         <v>0</v>
       </c>
       <c r="LI37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK37" s="2">
         <v>0</v>
@@ -40656,10 +40656,10 @@
         <v>0</v>
       </c>
       <c r="LI39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK39" s="2">
         <v>0</v>
@@ -41648,10 +41648,10 @@
         <v>0</v>
       </c>
       <c r="LI40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK40" s="2">
         <v>0</v>
@@ -42678,7 +42678,7 @@
         <v>0.78125</v>
       </c>
       <c r="C42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -44519,7 +44519,7 @@
         <v>0</v>
       </c>
       <c r="JZ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA43" s="2">
         <v>0</v>
@@ -49584,10 +49584,10 @@
         <v>0</v>
       </c>
       <c r="LI48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK48" s="2">
         <v>0</v>
@@ -60496,10 +60496,10 @@
         <v>0</v>
       </c>
       <c r="LI59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK59" s="2">
         <v>0</v>
@@ -62524,7 +62524,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -63472,10 +63472,10 @@
         <v>0</v>
       </c>
       <c r="LI62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK62" s="2">
         <v>0</v>
@@ -65494,7 +65494,7 @@
         <v>0.453125</v>
       </c>
       <c r="C65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -66448,10 +66448,10 @@
         <v>0</v>
       </c>
       <c r="LI65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK65" s="2">
         <v>0</v>
@@ -68432,10 +68432,10 @@
         <v>0</v>
       </c>
       <c r="LI67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK67" s="2">
         <v>0</v>
@@ -68459,7 +68459,7 @@
         <v>0</v>
       </c>
       <c r="LR67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:330">
@@ -72400,10 +72400,10 @@
         <v>0</v>
       </c>
       <c r="LI71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK71" s="2">
         <v>0</v>
@@ -72438,7 +72438,7 @@
         <v>0.421875</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -77398,7 +77398,7 @@
         <v>0.515625</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -79344,10 +79344,10 @@
         <v>0</v>
       </c>
       <c r="LI78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK78" s="2">
         <v>0</v>
@@ -83312,10 +83312,10 @@
         <v>0</v>
       </c>
       <c r="LI82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK82" s="2">
         <v>0</v>
@@ -83356,7 +83356,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -84304,10 +84304,10 @@
         <v>0</v>
       </c>
       <c r="LI83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK83" s="2">
         <v>0</v>
@@ -85323,7 +85323,7 @@
         <v>0</v>
       </c>
       <c r="LR84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:330">
@@ -89264,10 +89264,10 @@
         <v>0</v>
       </c>
       <c r="LI88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK88" s="2">
         <v>0</v>
@@ -89308,7 +89308,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -90256,10 +90256,10 @@
         <v>0</v>
       </c>
       <c r="LI89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK89" s="2">
         <v>0</v>
@@ -94251,7 +94251,7 @@
         <v>0</v>
       </c>
       <c r="LR93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:330">
@@ -94268,7 +94268,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
@@ -97227,7 +97227,7 @@
         <v>0</v>
       </c>
       <c r="LR96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:330">
@@ -102198,7 +102198,7 @@
         <v>0.796875</v>
       </c>
       <c r="C102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -106128,10 +106128,10 @@
         <v>0</v>
       </c>
       <c r="LI105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ105" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK105" s="2">
         <v>0</v>
